--- a/biology/Médecine/Flegmatique/Flegmatique.xlsx
+++ b/biology/Médecine/Flegmatique/Flegmatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le flegmatique (du latin phlegmaticus, « flegmatique ») est, dans la théorie des humeurs, un individu principalement caractérisé par le calme.
 </t>
@@ -511,11 +523,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot flegmatique est issu du latin phlegmaticus lui-même issu du grec φλεγματικός (phlegmatikós)[1].
-Il peut également s'orthographier phlegmatique[2].
-Le caractère pouvant également être provoqué à un excès de lymphe, et étant associé au froid, son emploi dans le langage courant est synonyme de « lymphatique » ou de « sang-froid »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot flegmatique est issu du latin phlegmaticus lui-même issu du grec φλεγματικός (phlegmatikós).
+Il peut également s'orthographier phlegmatique.
+Le caractère pouvant également être provoqué à un excès de lymphe, et étant associé au froid, son emploi dans le langage courant est synonyme de « lymphatique » ou de « sang-froid ».
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Théorie des humeurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la théorie des humeurs, le terme est employé pour désigner une personne dont l'excès de flegme (pituite) ou de lymphe[3] — organes associés à l'eau — induisait un caractère calme[4],[5].
-Les médecins hippocratiques conçoivent la maladie comme le résultat d’une souffrance du corps caractérisée par ce qu’ils assument comme étant un « mélange perturbé » des humeurs fondamentales (dont le froid) provoquée par la perte de la proportionnalité des qualités (chaud/froid, sec/humide)[6]. Dans cette idée, une personne qualifiée comme étant « flegmatique » est une personne dont l’humeur penche vers le flegme, de qualité froide et humide, mais restant équilibré[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la théorie des humeurs, le terme est employé pour désigner une personne dont l'excès de flegme (pituite) ou de lymphe — organes associés à l'eau — induisait un caractère calme,.
+Les médecins hippocratiques conçoivent la maladie comme le résultat d’une souffrance du corps caractérisée par ce qu’ils assument comme étant un « mélange perturbé » des humeurs fondamentales (dont le froid) provoquée par la perte de la proportionnalité des qualités (chaud/froid, sec/humide). Dans cette idée, une personne qualifiée comme étant « flegmatique » est une personne dont l’humeur penche vers le flegme, de qualité froide et humide, mais restant équilibré.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Emploi dans la littérature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme a été employé par George Sand[8], Émile Zola[9], ou Guy Chantepleure[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme a été employé par George Sand, Émile Zola, ou Guy Chantepleure.
 </t>
         </is>
       </c>
